--- a/1_course/term_2/Computer_Science/lab3.xlsx
+++ b/1_course/term_2/Computer_Science/lab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anastasia\NULP\Informatics\Lab_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Documents\NULP\NULP_doc\1_course\term_2\Computer_Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03EC82A-C5CD-4526-90A1-77243E777DE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5EEF71-3D64-4090-BB25-F38DCB3F0DEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" activeTab="5" xr2:uid="{605B4412-16FB-4FBD-B568-E218A24CDAFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{605B4412-16FB-4FBD-B568-E218A24CDAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Завдання_1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Розв’язок квадратного рівняння з довільними коефіцієнтами</t>
   </si>
@@ -66,18 +66,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>Сума</t>
-  </si>
-  <si>
-    <t>Середнє</t>
-  </si>
-  <si>
-    <t>Виконання підсумку</t>
-  </si>
-  <si>
-    <t>Кількість</t>
   </si>
   <si>
     <t xml:space="preserve">d </t>
@@ -241,9 +229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -260,6 +245,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -576,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B1A402-C168-4465-A144-7ADE0BD9E68D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -587,12 +575,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -605,11 +593,11 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2.31</v>
       </c>
       <c r="B3">
@@ -650,10 +638,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +674,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <f>_x1^2+2*_x2^2</f>
@@ -695,7 +683,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <f>_x2*SIN(_x2)</f>
@@ -704,7 +692,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <f>COS(_x1*_x2)</f>
@@ -713,7 +701,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>LN(ABS(_x1*_x2))</f>
@@ -722,7 +710,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <f>LOG10(ABS(ATAN(_x1)))</f>
@@ -731,7 +719,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <f>LOG(SQRT(ABS(_x1)),2)</f>
@@ -740,7 +728,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <f>ASIN(ABS(_x1)-INT(ABS(_x1)))</f>
@@ -749,7 +737,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <f>EXP(TAN(_x2))</f>
@@ -758,7 +746,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <f>ACOS(ABS(_x1)-INT(ABS(_x1)))</f>
@@ -767,7 +755,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f>ABS(_x1)^0.33</f>
@@ -793,22 +781,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
+      <c r="A1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
+      <c r="A2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
         <v>-2.5</v>
@@ -821,8 +809,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
+      <c r="A3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
         <v>5.4</v>
@@ -835,8 +823,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
+      <c r="A4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B4">
         <f>x1_vector*x2_vector + y1_vector*y2_vector+z1_vector*z2_vector</f>
@@ -844,8 +832,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
+      <c r="A5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B5">
         <f>SQRT(x1_vector^2 + y1_vector^2 + z1_vector^2)</f>
@@ -853,8 +841,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
+      <c r="A6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B6">
         <f>SQRT(x2_vector^2 + y2_vector^2 + z2_vector^2)</f>
@@ -862,8 +850,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
+      <c r="A7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
         <f>B4/(B5*B6)</f>
@@ -871,20 +859,20 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B9">
         <f>(y1_vector*z2_vector)-(z1_vector*y2_vector)</f>
@@ -920,83 +908,83 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="8">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="8">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="8">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>-14</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6">
         <f>MDETERM(C2:E4)</f>
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>-14</v>
       </c>
       <c r="G8">
@@ -1005,44 +993,44 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6">
         <f>determinator_1/detA</f>
         <v>4.0000000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>22</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>23</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>-14</v>
       </c>
       <c r="G12">
@@ -1051,44 +1039,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6">
         <f>determinator_2/detA</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>-2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>23</v>
       </c>
       <c r="G16">
@@ -1097,10 +1085,10 @@
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6">
         <f>determinator_3/detA</f>
         <v>1</v>
       </c>
@@ -1112,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6D39B1-79D5-44FB-A92C-9618F5646B62}">
-  <dimension ref="C2:H6"/>
+  <dimension ref="C2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,55 +1112,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>-1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3">
         <v>-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>6</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>-14</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6">
-        <f>MINVERSE(C2:E4)</f>
+        <f t="array" ref="C6:E8">MINVERSE(C2:E4)</f>
         <v>-2.4691358024691318E-2</v>
       </c>
       <c r="D6">
-        <f>MINVERSE(C2:E4)</f>
-        <v>-2.4691358024691318E-2</v>
+        <v>0.45679012345679015</v>
+      </c>
+      <c r="E6">
+        <v>0.19753086419753094</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="D7">
+        <v>-0.30864197530864196</v>
+      </c>
+      <c r="E7">
+        <v>-0.16049382716049387</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="D8">
+        <v>-1.2345679012345668E-2</v>
+      </c>
+      <c r="E8">
+        <v>-8.6419753086419762E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="array" ref="C10:E12">MINVERSE(C6:E8)</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>-1.0000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="D11">
+        <v>-1.9999999999999998</v>
+      </c>
+      <c r="E11">
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="D12">
+        <v>4.9999999999999973</v>
+      </c>
+      <c r="E12">
+        <v>-13.999999999999995</v>
       </c>
     </row>
   </sheetData>
